--- a/data/var_2023.xlsx
+++ b/data/var_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merlyklaas/Documents/Work/Canopy/canopy-dac-24/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776D5444-1BEC-594E-B9AA-40EC1435A273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343FEEE2-D105-9A42-8E21-72B97FEC7B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{D1B091CC-2E06-DF44-9AE7-D9E16021D151}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="669">
   <si>
     <t>school_id</t>
   </si>
@@ -1971,6 +1971,78 @@
   </si>
   <si>
     <t>school_descriptor</t>
+  </si>
+  <si>
+    <t>leadership_diversity</t>
+  </si>
+  <si>
+    <t>teaching_diversity</t>
+  </si>
+  <si>
+    <t>leader1_gender</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>leader1_race</t>
+  </si>
+  <si>
+    <t>3,4,6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,3,4,6</t>
+  </si>
+  <si>
+    <t>1,2,4,6</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2,3,6</t>
+  </si>
+  <si>
+    <t>1,3,4,6</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>1,3</t>
   </si>
 </sst>
 </file>
@@ -2345,20 +2417,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02363337-ACC8-0F46-8AD1-41A8161735D6}">
-  <dimension ref="A1:BG253"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1:BG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BI52" sqref="BI52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="33" max="59" width="10.6640625" customWidth="1"/>
+    <col min="33" max="63" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="3" customFormat="1" ht="125" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" s="3" customFormat="1" ht="125" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2536,8 +2608,20 @@
       <c r="BG1" s="4" t="s">
         <v>644</v>
       </c>
+      <c r="BH1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>654</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -2709,8 +2793,20 @@
       <c r="BG2" s="1">
         <v>2</v>
       </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>655</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -2882,8 +2978,20 @@
       <c r="BG3" s="1">
         <v>3</v>
       </c>
+      <c r="BH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -3061,8 +3169,20 @@
       <c r="BG4" s="1">
         <v>1</v>
       </c>
+      <c r="BH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -3240,8 +3360,20 @@
       <c r="BG5" s="1">
         <v>2</v>
       </c>
+      <c r="BH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>22</v>
       </c>
@@ -3419,8 +3551,20 @@
       <c r="BG6" s="1">
         <v>2</v>
       </c>
+      <c r="BH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>24</v>
       </c>
@@ -3598,8 +3742,20 @@
       <c r="BG7" s="1">
         <v>2</v>
       </c>
+      <c r="BH7" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>26</v>
       </c>
@@ -3777,8 +3933,20 @@
       <c r="BG8" s="1">
         <v>1</v>
       </c>
+      <c r="BH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>27</v>
       </c>
@@ -3950,8 +4118,20 @@
       <c r="BG9" s="1">
         <v>1</v>
       </c>
+      <c r="BH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>37</v>
       </c>
@@ -4120,8 +4300,17 @@
       <c r="BG10" s="1">
         <v>2</v>
       </c>
+      <c r="BH10" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>651</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>38</v>
       </c>
@@ -4293,8 +4482,20 @@
       <c r="BG11" s="1">
         <v>2</v>
       </c>
+      <c r="BH11" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>41</v>
       </c>
@@ -4472,8 +4673,20 @@
       <c r="BG12" s="1">
         <v>1</v>
       </c>
+      <c r="BH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK12" s="1" t="s">
+        <v>649</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44</v>
       </c>
@@ -4645,8 +4858,20 @@
       <c r="BG13" s="1">
         <v>2</v>
       </c>
+      <c r="BH13" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK13" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>47</v>
       </c>
@@ -4824,8 +5049,20 @@
       <c r="BG14" s="1">
         <v>1</v>
       </c>
+      <c r="BH14" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>52</v>
       </c>
@@ -4994,8 +5231,20 @@
       <c r="BG15" s="1">
         <v>1</v>
       </c>
+      <c r="BH15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>58</v>
       </c>
@@ -5170,8 +5419,20 @@
       <c r="BG16" s="1">
         <v>2</v>
       </c>
+      <c r="BH16" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>63</v>
       </c>
@@ -5349,8 +5610,20 @@
       <c r="BG17" s="1">
         <v>2</v>
       </c>
+      <c r="BH17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK17" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>64</v>
       </c>
@@ -5528,8 +5801,20 @@
       <c r="BG18" s="1">
         <v>2</v>
       </c>
+      <c r="BH18" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK18" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>70</v>
       </c>
@@ -5707,8 +5992,20 @@
       <c r="BG19" s="1">
         <v>2</v>
       </c>
+      <c r="BH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK19" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>71</v>
       </c>
@@ -5880,8 +6177,20 @@
       <c r="BG20" s="1">
         <v>1</v>
       </c>
+      <c r="BH20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK20" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>76</v>
       </c>
@@ -6059,8 +6368,20 @@
       <c r="BG21" s="1">
         <v>1</v>
       </c>
+      <c r="BH21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>79</v>
       </c>
@@ -6232,8 +6553,20 @@
       <c r="BG22" s="1">
         <v>1</v>
       </c>
+      <c r="BH22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ22" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK22" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>80</v>
       </c>
@@ -6411,8 +6744,20 @@
       <c r="BG23" s="1">
         <v>1</v>
       </c>
+      <c r="BH23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK23" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>81</v>
       </c>
@@ -6584,8 +6929,20 @@
       <c r="BG24" s="1">
         <v>2</v>
       </c>
+      <c r="BH24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK24" s="1" t="s">
+        <v>657</v>
+      </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>83</v>
       </c>
@@ -6763,8 +7120,20 @@
       <c r="BG25" s="1">
         <v>2</v>
       </c>
+      <c r="BH25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK25" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>84</v>
       </c>
@@ -6942,8 +7311,20 @@
       <c r="BG26" s="1">
         <v>1</v>
       </c>
+      <c r="BH26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK26" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>85</v>
       </c>
@@ -7121,8 +7502,20 @@
       <c r="BG27" s="1">
         <v>2</v>
       </c>
+      <c r="BH27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ27" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK27" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>91</v>
       </c>
@@ -7300,8 +7693,20 @@
       <c r="BG28" s="1">
         <v>2</v>
       </c>
+      <c r="BH28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ28" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK28" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>97</v>
       </c>
@@ -7473,8 +7878,20 @@
       <c r="BG29" s="1">
         <v>1</v>
       </c>
+      <c r="BH29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ29" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK29" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>98</v>
       </c>
@@ -7652,8 +8069,20 @@
       <c r="BG30" s="1">
         <v>2</v>
       </c>
+      <c r="BH30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ30" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK30" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>101</v>
       </c>
@@ -7825,8 +8254,20 @@
       <c r="BG31" s="1">
         <v>2</v>
       </c>
+      <c r="BH31" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>105</v>
       </c>
@@ -8004,8 +8445,20 @@
       <c r="BG32" s="1">
         <v>1</v>
       </c>
+      <c r="BH32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ32" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK32" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>109</v>
       </c>
@@ -8183,8 +8636,20 @@
       <c r="BG33" s="1">
         <v>2</v>
       </c>
+      <c r="BH33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ33" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK33" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>120</v>
       </c>
@@ -8362,8 +8827,20 @@
       <c r="BG34" s="1">
         <v>2</v>
       </c>
+      <c r="BH34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI34" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ34" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK34" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>122</v>
       </c>
@@ -8535,8 +9012,20 @@
       <c r="BG35" s="1">
         <v>2</v>
       </c>
+      <c r="BH35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ35" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK35" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>132</v>
       </c>
@@ -8714,8 +9203,20 @@
       <c r="BG36" s="1">
         <v>1</v>
       </c>
+      <c r="BH36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI36" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ36" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK36" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>138</v>
       </c>
@@ -8887,8 +9388,20 @@
       <c r="BG37" s="1">
         <v>1</v>
       </c>
+      <c r="BH37" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI37" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ37" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK37" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>139</v>
       </c>
@@ -9060,8 +9573,20 @@
       <c r="BG38" s="1">
         <v>2</v>
       </c>
+      <c r="BH38" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI38" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ38" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK38" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>140</v>
       </c>
@@ -9233,8 +9758,20 @@
       <c r="BG39" s="1">
         <v>1</v>
       </c>
+      <c r="BH39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ39" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK39" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>141</v>
       </c>
@@ -9406,8 +9943,20 @@
       <c r="BG40" s="1">
         <v>1</v>
       </c>
+      <c r="BH40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ40" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK40" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>144</v>
       </c>
@@ -9585,8 +10134,20 @@
       <c r="BG41" s="1">
         <v>1</v>
       </c>
+      <c r="BH41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ41" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK41" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>150</v>
       </c>
@@ -9755,8 +10316,20 @@
       <c r="BG42" s="1">
         <v>3</v>
       </c>
+      <c r="BH42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ42" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK42" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>165</v>
       </c>
@@ -9928,8 +10501,20 @@
       <c r="BG43" s="1">
         <v>2</v>
       </c>
+      <c r="BH43" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI43" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ43" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK43" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>167</v>
       </c>
@@ -10107,8 +10692,20 @@
       <c r="BG44" s="1">
         <v>1</v>
       </c>
+      <c r="BH44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ44" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK44" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>172</v>
       </c>
@@ -10280,8 +10877,20 @@
       <c r="BG45" s="1">
         <v>2</v>
       </c>
+      <c r="BH45" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI45" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ45" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK45" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>180</v>
       </c>
@@ -10459,8 +11068,20 @@
       <c r="BG46" s="1">
         <v>2</v>
       </c>
+      <c r="BH46" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI46" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ46" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK46" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>189</v>
       </c>
@@ -10638,8 +11259,20 @@
       <c r="BG47" s="1">
         <v>1</v>
       </c>
+      <c r="BH47" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI47" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ47" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK47" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>191</v>
       </c>
@@ -10817,8 +11450,20 @@
       <c r="BG48" s="1">
         <v>1</v>
       </c>
+      <c r="BH48" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI48" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ48" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK48" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>201</v>
       </c>
@@ -10996,8 +11641,20 @@
       <c r="BG49" s="1">
         <v>2</v>
       </c>
+      <c r="BH49" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ49" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK49" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>208</v>
       </c>
@@ -11169,8 +11826,20 @@
       <c r="BG50" s="1">
         <v>2</v>
       </c>
+      <c r="BH50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ50" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK50" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>209</v>
       </c>
@@ -11348,8 +12017,20 @@
       <c r="BG51" s="1">
         <v>2</v>
       </c>
+      <c r="BH51" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI51" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ51" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK51" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>212</v>
       </c>
@@ -11518,8 +12199,20 @@
       <c r="BG52" s="1">
         <v>2</v>
       </c>
+      <c r="BH52" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI52" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ52" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK52" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>218</v>
       </c>
@@ -11697,8 +12390,20 @@
       <c r="BG53" s="1">
         <v>1</v>
       </c>
+      <c r="BH53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ53" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK53" s="1" t="s">
+        <v>653</v>
+      </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>225</v>
       </c>
@@ -11876,8 +12581,20 @@
       <c r="BG54" s="1">
         <v>1</v>
       </c>
+      <c r="BH54" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI54" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ54" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK54" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>234</v>
       </c>
@@ -12049,8 +12766,20 @@
       <c r="BG55" s="1">
         <v>2</v>
       </c>
+      <c r="BH55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ55" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK55" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>236</v>
       </c>
@@ -12228,8 +12957,20 @@
       <c r="BG56" s="1">
         <v>2</v>
       </c>
+      <c r="BH56" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI56" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ56" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK56" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>237</v>
       </c>
@@ -12407,8 +13148,20 @@
       <c r="BG57" s="1">
         <v>2</v>
       </c>
+      <c r="BH57" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI57" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ57" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK57" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>247</v>
       </c>
@@ -12577,8 +13330,17 @@
       <c r="BG58" s="1">
         <v>1</v>
       </c>
+      <c r="BH58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ58" s="1" t="s">
+        <v>651</v>
+      </c>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>251</v>
       </c>
@@ -12747,8 +13509,20 @@
       <c r="BG59" s="1">
         <v>3</v>
       </c>
+      <c r="BH59" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI59" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ59" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK59" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>253</v>
       </c>
@@ -12923,8 +13697,20 @@
       <c r="BG60" s="1">
         <v>3</v>
       </c>
+      <c r="BH60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI60" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ60" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK60" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>262</v>
       </c>
@@ -13096,8 +13882,20 @@
       <c r="BG61" s="1">
         <v>1</v>
       </c>
+      <c r="BH61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI61" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ61" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK61" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>266</v>
       </c>
@@ -13266,8 +14064,20 @@
       <c r="BG62" s="1">
         <v>3</v>
       </c>
+      <c r="BH62" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ62" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK62" s="1" t="s">
+        <v>659</v>
+      </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>268</v>
       </c>
@@ -13439,8 +14249,20 @@
       <c r="BG63" s="1">
         <v>2</v>
       </c>
+      <c r="BH63" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI63" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ63" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK63" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>270</v>
       </c>
@@ -13618,8 +14440,20 @@
       <c r="BG64" s="1">
         <v>2</v>
       </c>
+      <c r="BH64" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI64" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ64" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK64" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>279</v>
       </c>
@@ -13794,8 +14628,20 @@
       <c r="BG65" s="1">
         <v>1</v>
       </c>
+      <c r="BH65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ65" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK65" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>284</v>
       </c>
@@ -13961,8 +14807,20 @@
       <c r="BG66" s="1">
         <v>3</v>
       </c>
+      <c r="BH66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ66" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK66" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>291</v>
       </c>
@@ -14134,8 +14992,20 @@
       <c r="BG67" s="1">
         <v>1</v>
       </c>
+      <c r="BH67" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI67" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ67" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK67" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>292</v>
       </c>
@@ -14313,8 +15183,20 @@
       <c r="BG68" s="1">
         <v>2</v>
       </c>
+      <c r="BH68" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI68" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ68" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK68" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>293</v>
       </c>
@@ -14474,8 +15356,20 @@
       <c r="BG69" s="1">
         <v>1</v>
       </c>
+      <c r="BH69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ69" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK69" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>302</v>
       </c>
@@ -14653,8 +15547,20 @@
       <c r="BG70" s="1">
         <v>1</v>
       </c>
+      <c r="BH70" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ70" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK70" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>303</v>
       </c>
@@ -14832,8 +15738,20 @@
       <c r="BG71" s="1">
         <v>2</v>
       </c>
+      <c r="BH71" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI71" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ71" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK71" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>306</v>
       </c>
@@ -15005,8 +15923,20 @@
       <c r="BG72" s="1">
         <v>2</v>
       </c>
+      <c r="BH72" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI72" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ72" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK72" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>308</v>
       </c>
@@ -15178,8 +16108,20 @@
       <c r="BG73" s="1">
         <v>2</v>
       </c>
+      <c r="BH73" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI73" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ73" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK73" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>312</v>
       </c>
@@ -15357,8 +16299,20 @@
       <c r="BG74" s="1">
         <v>1</v>
       </c>
+      <c r="BH74" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI74" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ74" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="BK74" s="1" t="s">
+        <v>661</v>
+      </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>318</v>
       </c>
@@ -15536,8 +16490,17 @@
       <c r="BG75" s="1">
         <v>1</v>
       </c>
+      <c r="BH75" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ75" s="1" t="s">
+        <v>651</v>
+      </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>319</v>
       </c>
@@ -15709,8 +16672,20 @@
       <c r="BG76" s="1">
         <v>1</v>
       </c>
+      <c r="BH76" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI76" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ76" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK76" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>323</v>
       </c>
@@ -15888,8 +16863,20 @@
       <c r="BG77" s="1">
         <v>2</v>
       </c>
+      <c r="BH77" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI77" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ77" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK77" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>325</v>
       </c>
@@ -16049,8 +17036,20 @@
       <c r="BG78" s="1">
         <v>3</v>
       </c>
+      <c r="BH78" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI78" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ78" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK78" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>330</v>
       </c>
@@ -16228,8 +17227,20 @@
       <c r="BG79" s="1">
         <v>1</v>
       </c>
+      <c r="BH79" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI79" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ79" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK79" s="1" t="s">
+        <v>655</v>
+      </c>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>332</v>
       </c>
@@ -16407,8 +17418,20 @@
       <c r="BG80" s="1">
         <v>2</v>
       </c>
+      <c r="BH80" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI80" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ80" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK80" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>333</v>
       </c>
@@ -16586,8 +17609,20 @@
       <c r="BG81" s="1">
         <v>2</v>
       </c>
+      <c r="BH81" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI81" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ81" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK81" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>340</v>
       </c>
@@ -16759,8 +17794,20 @@
       <c r="BG82" s="1">
         <v>1</v>
       </c>
+      <c r="BH82" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI82" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ82" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="BK82" s="1" t="s">
+        <v>662</v>
+      </c>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>345</v>
       </c>
@@ -16938,8 +17985,20 @@
       <c r="BG83" s="1">
         <v>3</v>
       </c>
+      <c r="BH83" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI83" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ83" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK83" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>346</v>
       </c>
@@ -17117,8 +18176,20 @@
       <c r="BG84" s="1">
         <v>1</v>
       </c>
+      <c r="BH84" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI84" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ84" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK84" s="1" t="s">
+        <v>649</v>
+      </c>
     </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>348</v>
       </c>
@@ -17296,8 +18367,20 @@
       <c r="BG85" s="1">
         <v>1</v>
       </c>
+      <c r="BH85" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI85" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ85" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK85" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>353</v>
       </c>
@@ -17469,8 +18552,20 @@
       <c r="BG86" s="1">
         <v>2</v>
       </c>
+      <c r="BH86" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI86" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ86" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK86" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>359</v>
       </c>
@@ -17642,8 +18737,20 @@
       <c r="BG87" s="1">
         <v>2</v>
       </c>
+      <c r="BH87" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI87" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ87" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK87" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>360</v>
       </c>
@@ -17815,8 +18922,20 @@
       <c r="BG88" s="1">
         <v>1</v>
       </c>
+      <c r="BH88" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI88" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ88" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK88" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>364</v>
       </c>
@@ -17994,8 +19113,20 @@
       <c r="BG89" s="1">
         <v>2</v>
       </c>
+      <c r="BH89" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI89" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ89" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK89" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="90" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>368</v>
       </c>
@@ -18170,8 +19301,20 @@
       <c r="BG90" s="1">
         <v>3</v>
       </c>
+      <c r="BH90" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI90" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ90" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK90" s="1" t="s">
+        <v>663</v>
+      </c>
     </row>
-    <row r="91" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>369</v>
       </c>
@@ -18343,8 +19486,20 @@
       <c r="BG91" s="1">
         <v>2</v>
       </c>
+      <c r="BH91" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI91" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ91" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK91" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>371</v>
       </c>
@@ -18516,8 +19671,20 @@
       <c r="BG92" s="1">
         <v>1</v>
       </c>
+      <c r="BH92" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI92" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ92" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK92" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>372</v>
       </c>
@@ -18695,8 +19862,20 @@
       <c r="BG93" s="1">
         <v>1</v>
       </c>
+      <c r="BH93" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI93" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ93" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK93" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
-    <row r="94" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>380</v>
       </c>
@@ -18874,8 +20053,20 @@
       <c r="BG94" s="1">
         <v>1</v>
       </c>
+      <c r="BH94" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI94" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ94" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK94" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="95" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>382</v>
       </c>
@@ -19044,8 +20235,20 @@
       <c r="BG95" s="1">
         <v>1</v>
       </c>
+      <c r="BH95" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI95" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ95" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK95" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="96" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>383</v>
       </c>
@@ -19217,8 +20420,20 @@
       <c r="BG96" s="1">
         <v>1</v>
       </c>
+      <c r="BH96" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI96" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ96" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK96" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="97" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>384</v>
       </c>
@@ -19396,8 +20611,20 @@
       <c r="BG97" s="1">
         <v>1</v>
       </c>
+      <c r="BH97" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI97" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ97" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK97" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="98" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>388</v>
       </c>
@@ -19575,8 +20802,20 @@
       <c r="BG98" s="1">
         <v>1</v>
       </c>
+      <c r="BH98" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI98" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ98" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK98" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="99" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>390</v>
       </c>
@@ -19727,8 +20966,20 @@
       <c r="BG99" s="1">
         <v>1</v>
       </c>
+      <c r="BH99" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI99" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ99" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK99" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="100" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>394</v>
       </c>
@@ -19876,8 +21127,20 @@
       <c r="BG100" s="1">
         <v>1</v>
       </c>
+      <c r="BH100" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI100" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ100" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK100" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="101" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>400</v>
       </c>
@@ -20055,8 +21318,20 @@
       <c r="BG101" s="1">
         <v>2</v>
       </c>
+      <c r="BH101" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI101" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ101" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK101" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="102" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>406</v>
       </c>
@@ -20225,8 +21500,20 @@
       <c r="BG102" s="1">
         <v>1</v>
       </c>
+      <c r="BH102" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI102" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ102" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK102" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
-    <row r="103" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>410</v>
       </c>
@@ -20404,8 +21691,20 @@
       <c r="BG103" s="1">
         <v>2</v>
       </c>
+      <c r="BH103" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI103" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ103" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK103" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="104" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>411</v>
       </c>
@@ -20577,8 +21876,20 @@
       <c r="BG104" s="1">
         <v>2</v>
       </c>
+      <c r="BH104" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI104" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ104" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK104" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="105" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>426</v>
       </c>
@@ -20750,8 +22061,20 @@
       <c r="BG105" s="1">
         <v>2</v>
       </c>
+      <c r="BH105" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI105" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ105" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="BK105" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="106" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>429</v>
       </c>
@@ -20923,8 +22246,20 @@
       <c r="BG106" s="1">
         <v>1</v>
       </c>
+      <c r="BH106" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI106" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ106" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK106" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="107" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>431</v>
       </c>
@@ -21102,8 +22437,20 @@
       <c r="BG107" s="1">
         <v>1</v>
       </c>
+      <c r="BH107" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI107" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ107" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK107" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
-    <row r="108" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>445</v>
       </c>
@@ -21281,8 +22628,20 @@
       <c r="BG108" s="1">
         <v>1</v>
       </c>
+      <c r="BH108" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI108" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ108" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK108" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="109" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>448</v>
       </c>
@@ -21454,8 +22813,17 @@
       <c r="BG109" s="1">
         <v>2</v>
       </c>
+      <c r="BH109" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI109" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ109" s="1" t="s">
+        <v>649</v>
+      </c>
     </row>
-    <row r="110" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>452</v>
       </c>
@@ -21627,8 +22995,20 @@
       <c r="BG110" s="1">
         <v>1</v>
       </c>
+      <c r="BH110" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI110" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ110" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK110" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="111" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>455</v>
       </c>
@@ -21806,8 +23186,20 @@
       <c r="BG111" s="1">
         <v>1</v>
       </c>
+      <c r="BH111" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI111" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ111" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK111" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="112" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>457</v>
       </c>
@@ -21982,8 +23374,20 @@
       <c r="BG112" s="1">
         <v>2</v>
       </c>
+      <c r="BH112" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI112" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ112" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK112" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
-    <row r="113" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>458</v>
       </c>
@@ -22161,8 +23565,20 @@
       <c r="BG113" s="1">
         <v>2</v>
       </c>
+      <c r="BH113" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI113" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ113" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK113" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="114" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>462</v>
       </c>
@@ -22337,8 +23753,20 @@
       <c r="BG114" s="1">
         <v>1</v>
       </c>
+      <c r="BH114" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI114" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ114" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK114" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="115" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>466</v>
       </c>
@@ -22507,8 +23935,20 @@
       <c r="BG115" s="1">
         <v>3</v>
       </c>
+      <c r="BH115" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI115" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ115" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="BK115" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="116" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>472</v>
       </c>
@@ -22677,8 +24117,20 @@
       <c r="BG116" s="1">
         <v>1</v>
       </c>
+      <c r="BH116" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI116" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ116" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK116" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>473</v>
       </c>
@@ -22847,8 +24299,20 @@
       <c r="BG117" s="1">
         <v>1</v>
       </c>
+      <c r="BH117" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI117" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ117" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK117" s="1" t="s">
+        <v>665</v>
+      </c>
     </row>
-    <row r="118" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>476</v>
       </c>
@@ -23026,8 +24490,20 @@
       <c r="BG118" s="1">
         <v>2</v>
       </c>
+      <c r="BH118" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI118" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ118" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK118" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="119" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>479</v>
       </c>
@@ -23202,8 +24678,20 @@
       <c r="BG119" s="1">
         <v>2</v>
       </c>
+      <c r="BH119" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI119" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ119" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK119" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="120" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>480</v>
       </c>
@@ -23381,8 +24869,20 @@
       <c r="BG120" s="1">
         <v>2</v>
       </c>
+      <c r="BH120" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI120" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ120" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK120" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="121" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>483</v>
       </c>
@@ -23560,8 +25060,20 @@
       <c r="BG121" s="1">
         <v>2</v>
       </c>
+      <c r="BH121" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI121" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ121" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK121" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="122" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>493</v>
       </c>
@@ -23730,8 +25242,20 @@
       <c r="BG122" s="1">
         <v>2</v>
       </c>
+      <c r="BH122" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI122" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ122" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK122" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="123" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>495</v>
       </c>
@@ -23900,8 +25424,20 @@
       <c r="BG123" s="1">
         <v>3</v>
       </c>
+      <c r="BH123" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI123" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ123" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK123" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="124" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>497</v>
       </c>
@@ -24079,8 +25615,20 @@
       <c r="BG124" s="1">
         <v>1</v>
       </c>
+      <c r="BH124" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI124" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ124" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK124" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="125" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>498</v>
       </c>
@@ -24258,8 +25806,20 @@
       <c r="BG125" s="1">
         <v>1</v>
       </c>
+      <c r="BH125" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI125" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ125" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK125" s="1" t="s">
+        <v>666</v>
+      </c>
     </row>
-    <row r="126" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>499</v>
       </c>
@@ -24431,8 +25991,20 @@
       <c r="BG126" s="1">
         <v>1</v>
       </c>
+      <c r="BH126" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI126" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ126" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK126" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="127" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>501</v>
       </c>
@@ -24610,8 +26182,20 @@
       <c r="BG127" s="1">
         <v>1</v>
       </c>
+      <c r="BH127" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI127" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ127" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK127" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="128" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>502</v>
       </c>
@@ -24783,8 +26367,20 @@
       <c r="BG128" s="1">
         <v>1</v>
       </c>
+      <c r="BH128" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI128" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ128" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK128" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="129" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>504</v>
       </c>
@@ -24959,8 +26555,20 @@
       <c r="BG129" s="1">
         <v>2</v>
       </c>
+      <c r="BH129" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI129" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ129" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK129" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="130" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>506</v>
       </c>
@@ -25135,8 +26743,20 @@
       <c r="BG130" s="1">
         <v>3</v>
       </c>
+      <c r="BH130" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI130" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ130" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK130" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="131" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>511</v>
       </c>
@@ -25311,8 +26931,20 @@
       <c r="BG131" s="1">
         <v>2</v>
       </c>
+      <c r="BH131" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI131" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ131" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK131" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
-    <row r="132" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>512</v>
       </c>
@@ -25481,8 +27113,20 @@
       <c r="BG132" s="1">
         <v>3</v>
       </c>
+      <c r="BH132" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI132" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ132" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK132" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="133" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>517</v>
       </c>
@@ -25660,8 +27304,20 @@
       <c r="BG133" s="1">
         <v>2</v>
       </c>
+      <c r="BH133" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI133" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ133" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK133" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="134" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>518</v>
       </c>
@@ -25833,8 +27489,20 @@
       <c r="BG134" s="1">
         <v>1</v>
       </c>
+      <c r="BH134" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI134" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ134" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK134" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="135" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>519</v>
       </c>
@@ -26006,8 +27674,20 @@
       <c r="BG135" s="1">
         <v>1</v>
       </c>
+      <c r="BH135" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI135" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ135" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK135" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="136" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>520</v>
       </c>
@@ -26185,8 +27865,20 @@
       <c r="BG136" s="1">
         <v>1</v>
       </c>
+      <c r="BH136" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI136" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ136" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK136" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="137" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>522</v>
       </c>
@@ -26358,8 +28050,20 @@
       <c r="BG137" s="1">
         <v>1</v>
       </c>
+      <c r="BH137" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI137" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ137" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK137" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="138" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>526</v>
       </c>
@@ -26537,8 +28241,20 @@
       <c r="BG138" s="1">
         <v>1</v>
       </c>
+      <c r="BH138" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI138" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ138" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK138" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="139" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>530</v>
       </c>
@@ -26716,8 +28432,20 @@
       <c r="BG139" s="1">
         <v>1</v>
       </c>
+      <c r="BH139" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI139" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ139" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK139" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="140" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>535</v>
       </c>
@@ -26895,8 +28623,17 @@
       <c r="BG140" s="1">
         <v>1</v>
       </c>
+      <c r="BH140" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI140" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ140" s="1" t="s">
+        <v>648</v>
+      </c>
     </row>
-    <row r="141" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>537</v>
       </c>
@@ -27074,8 +28811,20 @@
       <c r="BG141" s="1">
         <v>1</v>
       </c>
+      <c r="BH141" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI141" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ141" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK141" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="142" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>539</v>
       </c>
@@ -27247,8 +28996,20 @@
       <c r="BG142" s="1">
         <v>1</v>
       </c>
+      <c r="BH142" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI142" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ142" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK142" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="143" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>540</v>
       </c>
@@ -27417,8 +29178,20 @@
       <c r="BG143" s="1">
         <v>3</v>
       </c>
+      <c r="BH143" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI143" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ143" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK143" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="144" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>541</v>
       </c>
@@ -27596,8 +29369,20 @@
       <c r="BG144" s="1">
         <v>2</v>
       </c>
+      <c r="BH144" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI144" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ144" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK144" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="145" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>545</v>
       </c>
@@ -27766,8 +29551,20 @@
       <c r="BG145" s="1">
         <v>3</v>
       </c>
+      <c r="BH145" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI145" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ145" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK145" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="146" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>549</v>
       </c>
@@ -27945,8 +29742,20 @@
       <c r="BG146" s="1">
         <v>2</v>
       </c>
+      <c r="BH146" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI146" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ146" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK146" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="147" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>555</v>
       </c>
@@ -28124,8 +29933,20 @@
       <c r="BG147" s="1">
         <v>1</v>
       </c>
+      <c r="BH147" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI147" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ147" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK147" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="148" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>567</v>
       </c>
@@ -28291,8 +30112,20 @@
       <c r="BG148" s="1">
         <v>3</v>
       </c>
+      <c r="BH148" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI148" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ148" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="BK148" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="149" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>568</v>
       </c>
@@ -28464,8 +30297,20 @@
       <c r="BG149" s="1">
         <v>1</v>
       </c>
+      <c r="BH149" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI149" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ149" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK149" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="150" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>569</v>
       </c>
@@ -28634,8 +30479,20 @@
       <c r="BG150" s="1">
         <v>3</v>
       </c>
+      <c r="BH150" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI150" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ150" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK150" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="151" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>572</v>
       </c>
@@ -28807,8 +30664,20 @@
       <c r="BG151" s="1">
         <v>3</v>
       </c>
+      <c r="BH151" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI151" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ151" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK151" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="152" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>577</v>
       </c>
@@ -28977,8 +30846,20 @@
       <c r="BG152" s="1">
         <v>3</v>
       </c>
+      <c r="BH152" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI152" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ152" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK152" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="153" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>587</v>
       </c>
@@ -29147,8 +31028,20 @@
       <c r="BG153" s="1">
         <v>2</v>
       </c>
+      <c r="BH153" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI153" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ153" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK153" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="154" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>588</v>
       </c>
@@ -29323,8 +31216,20 @@
       <c r="BG154" s="1">
         <v>1</v>
       </c>
+      <c r="BH154" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI154" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ154" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK154" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="155" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>600</v>
       </c>
@@ -29502,8 +31407,20 @@
       <c r="BG155" s="1">
         <v>1</v>
       </c>
+      <c r="BH155" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI155" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ155" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK155" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="156" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>604</v>
       </c>
@@ -29672,8 +31589,20 @@
       <c r="BG156" s="1">
         <v>3</v>
       </c>
+      <c r="BH156" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI156" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ156" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK156" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="157" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>605</v>
       </c>
@@ -29842,8 +31771,20 @@
       <c r="BG157" s="1">
         <v>1</v>
       </c>
+      <c r="BH157" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI157" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ157" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK157" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="158" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>607</v>
       </c>
@@ -30012,8 +31953,20 @@
       <c r="BG158" s="1">
         <v>3</v>
       </c>
+      <c r="BH158" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI158" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ158" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK158" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="159" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>608</v>
       </c>
@@ -30191,8 +32144,20 @@
       <c r="BG159" s="1">
         <v>3</v>
       </c>
+      <c r="BH159" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI159" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ159" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK159" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="160" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>615</v>
       </c>
@@ -30361,8 +32326,20 @@
       <c r="BG160" s="1">
         <v>3</v>
       </c>
+      <c r="BH160" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI160" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ160" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK160" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
-    <row r="161" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>619</v>
       </c>
@@ -30534,8 +32511,20 @@
       <c r="BG161" s="1">
         <v>1</v>
       </c>
+      <c r="BH161" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI161" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ161" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="BK161" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="162" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>620</v>
       </c>
@@ -30701,8 +32690,20 @@
       <c r="BG162" s="1">
         <v>2</v>
       </c>
+      <c r="BH162" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI162" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ162" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK162" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="163" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>622</v>
       </c>
@@ -30880,8 +32881,20 @@
       <c r="BG163" s="1">
         <v>2</v>
       </c>
+      <c r="BH163" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI163" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ163" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK163" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="164" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>624</v>
       </c>
@@ -31056,8 +33069,20 @@
       <c r="BG164" s="1">
         <v>1</v>
       </c>
+      <c r="BH164" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI164" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ164" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK164" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
-    <row r="165" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>627</v>
       </c>
@@ -31235,8 +33260,20 @@
       <c r="BG165" s="1">
         <v>2</v>
       </c>
+      <c r="BH165" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI165" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ165" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK165" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="166" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>628</v>
       </c>
@@ -31408,8 +33445,20 @@
       <c r="BG166" s="1">
         <v>2</v>
       </c>
+      <c r="BH166" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI166" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ166" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK166" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="167" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>635</v>
       </c>
@@ -31587,8 +33636,20 @@
       <c r="BG167" s="1">
         <v>1</v>
       </c>
+      <c r="BH167" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI167" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ167" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK167" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="168" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>637</v>
       </c>
@@ -31763,8 +33824,20 @@
       <c r="BG168" s="1">
         <v>1</v>
       </c>
+      <c r="BH168" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI168" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ168" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK168" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="169" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>638</v>
       </c>
@@ -31933,8 +34006,20 @@
       <c r="BG169" s="1">
         <v>2</v>
       </c>
+      <c r="BH169" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI169" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ169" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK169" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="170" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>639</v>
       </c>
@@ -32073,8 +34158,20 @@
       <c r="BG170" s="1">
         <v>3</v>
       </c>
+      <c r="BH170" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI170" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ170" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK170" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
-    <row r="171" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>640</v>
       </c>
@@ -32246,8 +34343,20 @@
       <c r="BG171" s="1">
         <v>2</v>
       </c>
+      <c r="BH171" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI171" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ171" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK171" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="172" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>643</v>
       </c>
@@ -32416,8 +34525,20 @@
       <c r="BG172" s="1">
         <v>2</v>
       </c>
+      <c r="BH172" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI172" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ172" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK172" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="173" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>649</v>
       </c>
@@ -32589,8 +34710,20 @@
       <c r="BG173" s="1">
         <v>1</v>
       </c>
+      <c r="BH173" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI173" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ173" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK173" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="174" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>650</v>
       </c>
@@ -32768,8 +34901,20 @@
       <c r="BG174" s="1">
         <v>1</v>
       </c>
+      <c r="BH174" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI174" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ174" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="BK174" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="175" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>651</v>
       </c>
@@ -32944,8 +35089,20 @@
       <c r="BG175" s="1">
         <v>1</v>
       </c>
+      <c r="BH175" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI175" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ175" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK175" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="176" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>652</v>
       </c>
@@ -33117,8 +35274,20 @@
       <c r="BG176" s="1">
         <v>1</v>
       </c>
+      <c r="BH176" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI176" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ176" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK176" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="177" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>653</v>
       </c>
@@ -33296,8 +35465,20 @@
       <c r="BG177" s="1">
         <v>1</v>
       </c>
+      <c r="BH177" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI177" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ177" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK177" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="178" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>654</v>
       </c>
@@ -33475,8 +35656,20 @@
       <c r="BG178" s="1">
         <v>1</v>
       </c>
+      <c r="BH178" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI178" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ178" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK178" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="179" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>655</v>
       </c>
@@ -33651,8 +35844,20 @@
       <c r="BG179" s="1">
         <v>3</v>
       </c>
+      <c r="BH179" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI179" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ179" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK179" s="1" t="s">
+        <v>663</v>
+      </c>
     </row>
-    <row r="180" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>656</v>
       </c>
@@ -33830,8 +36035,20 @@
       <c r="BG180" s="1">
         <v>1</v>
       </c>
+      <c r="BH180" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI180" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ180" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK180" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="181" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>657</v>
       </c>
@@ -34003,8 +36220,20 @@
       <c r="BG181" s="1">
         <v>1</v>
       </c>
+      <c r="BH181" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI181" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ181" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK181" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="182" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>658</v>
       </c>
@@ -34182,8 +36411,20 @@
       <c r="BG182" s="1">
         <v>1</v>
       </c>
+      <c r="BH182" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI182" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ182" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK182" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="183" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>659</v>
       </c>
@@ -34361,8 +36602,20 @@
       <c r="BG183" s="1">
         <v>3</v>
       </c>
+      <c r="BH183" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI183" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ183" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK183" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="184" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>660</v>
       </c>
@@ -34537,8 +36790,20 @@
       <c r="BG184" s="1">
         <v>1</v>
       </c>
+      <c r="BH184" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI184" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ184" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK184" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="185" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>662</v>
       </c>
@@ -34707,8 +36972,20 @@
       <c r="BG185" s="1">
         <v>3</v>
       </c>
+      <c r="BH185" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI185" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ185" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK185" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="186" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>663</v>
       </c>
@@ -34877,8 +37154,20 @@
       <c r="BG186" s="1">
         <v>2</v>
       </c>
+      <c r="BH186" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI186" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ186" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK186" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="187" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>665</v>
       </c>
@@ -35053,8 +37342,20 @@
       <c r="BG187" s="1">
         <v>2</v>
       </c>
+      <c r="BH187" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI187" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ187" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK187" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="188" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>666</v>
       </c>
@@ -35232,8 +37533,20 @@
       <c r="BG188" s="1">
         <v>2</v>
       </c>
+      <c r="BH188" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI188" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ188" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK188" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="189" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>668</v>
       </c>
@@ -35402,8 +37715,20 @@
       <c r="BG189" s="1">
         <v>3</v>
       </c>
+      <c r="BH189" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI189" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ189" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK189" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="190" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>669</v>
       </c>
@@ -35575,8 +37900,20 @@
       <c r="BG190" s="1">
         <v>1</v>
       </c>
+      <c r="BH190" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI190" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ190" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK190" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="191" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>672</v>
       </c>
@@ -35751,8 +38088,20 @@
       <c r="BG191" s="1">
         <v>2</v>
       </c>
+      <c r="BH191" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI191" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ191" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK191" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="192" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>674</v>
       </c>
@@ -35930,8 +38279,20 @@
       <c r="BG192" s="1">
         <v>1</v>
       </c>
+      <c r="BH192" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI192" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ192" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK192" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="193" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>676</v>
       </c>
@@ -36088,8 +38449,20 @@
       <c r="BG193" s="1">
         <v>1</v>
       </c>
+      <c r="BH193" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI193" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ193" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK193" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="194" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>678</v>
       </c>
@@ -36264,8 +38637,20 @@
       <c r="BG194" s="1">
         <v>2</v>
       </c>
+      <c r="BH194" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI194" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ194" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK194" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="195" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>679</v>
       </c>
@@ -36443,8 +38828,20 @@
       <c r="BG195" s="1">
         <v>1</v>
       </c>
+      <c r="BH195" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI195" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ195" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK195" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="196" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>680</v>
       </c>
@@ -36592,8 +38989,20 @@
       <c r="BG196" s="1">
         <v>3</v>
       </c>
+      <c r="BH196" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI196" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ196" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK196" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="197" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>681</v>
       </c>
@@ -36729,8 +39138,20 @@
       <c r="BG197" s="1">
         <v>3</v>
       </c>
+      <c r="BH197" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI197" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ197" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK197" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="198" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>683</v>
       </c>
@@ -36899,8 +39320,20 @@
       <c r="BG198" s="1">
         <v>3</v>
       </c>
+      <c r="BH198" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI198" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ198" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK198" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="199" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>685</v>
       </c>
@@ -37078,8 +39511,20 @@
       <c r="BG199" s="1">
         <v>1</v>
       </c>
+      <c r="BH199" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI199" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ199" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK199" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="200" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>688</v>
       </c>
@@ -37257,8 +39702,20 @@
       <c r="BG200" s="1">
         <v>2</v>
       </c>
+      <c r="BH200" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI200" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ200" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK200" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
-    <row r="201" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>690</v>
       </c>
@@ -37433,8 +39890,20 @@
       <c r="BG201" s="1">
         <v>2</v>
       </c>
+      <c r="BH201" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI201" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ201" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK201" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="202" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>691</v>
       </c>
@@ -37603,8 +40072,20 @@
       <c r="BG202" s="1">
         <v>2</v>
       </c>
+      <c r="BH202" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI202" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ202" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK202" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="203" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>693</v>
       </c>
@@ -37782,8 +40263,20 @@
       <c r="BG203" s="1">
         <v>2</v>
       </c>
+      <c r="BH203" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI203" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ203" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK203" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="204" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>694</v>
       </c>
@@ -37955,8 +40448,20 @@
       <c r="BG204" s="1">
         <v>2</v>
       </c>
+      <c r="BH204" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI204" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ204" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK204" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="205" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>697</v>
       </c>
@@ -38131,8 +40636,20 @@
       <c r="BG205" s="1">
         <v>2</v>
       </c>
+      <c r="BH205" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI205" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ205" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK205" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="206" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>699</v>
       </c>
@@ -38310,8 +40827,20 @@
       <c r="BG206" s="1">
         <v>1</v>
       </c>
+      <c r="BH206" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI206" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ206" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK206" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="207" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>703</v>
       </c>
@@ -38486,8 +41015,20 @@
       <c r="BG207" s="1">
         <v>2</v>
       </c>
+      <c r="BH207" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI207" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ207" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK207" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="208" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>707</v>
       </c>
@@ -38656,8 +41197,20 @@
       <c r="BG208" s="1">
         <v>2</v>
       </c>
+      <c r="BH208" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI208" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ208" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK208" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="209" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>708</v>
       </c>
@@ -38832,8 +41385,20 @@
       <c r="BG209" s="1">
         <v>2</v>
       </c>
+      <c r="BH209" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI209" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ209" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK209" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
-    <row r="210" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>710</v>
       </c>
@@ -39008,8 +41573,20 @@
       <c r="BG210" s="1">
         <v>2</v>
       </c>
+      <c r="BH210" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI210" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ210" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK210" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="211" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>712</v>
       </c>
@@ -39187,8 +41764,20 @@
       <c r="BG211" s="1">
         <v>1</v>
       </c>
+      <c r="BH211" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI211" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ211" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="BK211" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
-    <row r="212" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>714</v>
       </c>
@@ -39366,8 +41955,20 @@
       <c r="BG212" s="1">
         <v>2</v>
       </c>
+      <c r="BH212" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI212" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ212" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK212" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="213" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>715</v>
       </c>
@@ -39542,8 +42143,20 @@
       <c r="BG213" s="1">
         <v>2</v>
       </c>
+      <c r="BH213" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI213" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ213" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK213" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="214" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>720</v>
       </c>
@@ -39712,8 +42325,20 @@
       <c r="BG214" s="1">
         <v>2</v>
       </c>
+      <c r="BH214" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI214" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ214" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK214" s="1" t="s">
+        <v>655</v>
+      </c>
     </row>
-    <row r="215" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>724</v>
       </c>
@@ -39891,8 +42516,20 @@
       <c r="BG215" s="1">
         <v>2</v>
       </c>
+      <c r="BH215" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI215" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ215" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK215" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="216" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>727</v>
       </c>
@@ -40064,8 +42701,20 @@
       <c r="BG216" s="1">
         <v>1</v>
       </c>
+      <c r="BH216" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI216" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ216" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK216" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="217" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>729</v>
       </c>
@@ -40243,8 +42892,20 @@
       <c r="BG217" s="1">
         <v>1</v>
       </c>
+      <c r="BH217" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI217" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ217" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK217" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="218" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>731</v>
       </c>
@@ -40419,8 +43080,20 @@
       <c r="BG218" s="1">
         <v>2</v>
       </c>
+      <c r="BH218" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI218" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ218" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK218" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="219" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>739</v>
       </c>
@@ -40589,8 +43262,20 @@
       <c r="BG219" s="1">
         <v>2</v>
       </c>
+      <c r="BH219" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI219" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ219" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK219" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="220" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>740</v>
       </c>
@@ -40759,8 +43444,20 @@
       <c r="BG220" s="1">
         <v>2</v>
       </c>
+      <c r="BH220" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI220" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ220" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK220" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="221" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>743</v>
       </c>
@@ -40938,8 +43635,20 @@
       <c r="BG221" s="1">
         <v>2</v>
       </c>
+      <c r="BH221" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI221" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ221" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK221" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
-    <row r="222" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>745</v>
       </c>
@@ -41111,8 +43820,20 @@
       <c r="BG222" s="1">
         <v>1</v>
       </c>
+      <c r="BH222" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI222" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ222" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK222" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="223" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>746</v>
       </c>
@@ -41287,8 +44008,20 @@
       <c r="BG223" s="1">
         <v>1</v>
       </c>
+      <c r="BH223" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI223" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ223" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK223" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="224" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>747</v>
       </c>
@@ -41457,8 +44190,20 @@
       <c r="BG224" s="1">
         <v>2</v>
       </c>
+      <c r="BH224" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI224" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ224" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK224" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="225" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>748</v>
       </c>
@@ -41633,8 +44378,20 @@
       <c r="BG225" s="1">
         <v>2</v>
       </c>
+      <c r="BH225" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI225" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ225" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK225" s="1" t="s">
+        <v>663</v>
+      </c>
     </row>
-    <row r="226" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>749</v>
       </c>
@@ -41803,8 +44560,20 @@
       <c r="BG226" s="1">
         <v>2</v>
       </c>
+      <c r="BH226" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI226" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ226" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK226" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="227" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>752</v>
       </c>
@@ -41973,8 +44742,20 @@
       <c r="BG227" s="1">
         <v>2</v>
       </c>
+      <c r="BH227" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI227" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ227" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK227" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="228" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>753</v>
       </c>
@@ -42149,8 +44930,20 @@
       <c r="BG228" s="1">
         <v>1</v>
       </c>
+      <c r="BH228" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI228" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ228" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK228" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="229" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>754</v>
       </c>
@@ -42328,8 +45121,20 @@
       <c r="BG229" s="1">
         <v>1</v>
       </c>
+      <c r="BH229" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI229" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ229" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK229" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="230" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>756</v>
       </c>
@@ -42501,8 +45306,20 @@
       <c r="BG230" s="1">
         <v>1</v>
       </c>
+      <c r="BH230" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI230" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ230" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK230" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="231" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>757</v>
       </c>
@@ -42680,8 +45497,20 @@
       <c r="BG231" s="1">
         <v>1</v>
       </c>
+      <c r="BH231" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI231" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ231" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK231" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="232" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>759</v>
       </c>
@@ -42850,8 +45679,20 @@
       <c r="BG232" s="1">
         <v>2</v>
       </c>
+      <c r="BH232" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI232" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ232" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK232" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="233" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>760</v>
       </c>
@@ -43026,8 +45867,20 @@
       <c r="BG233" s="1">
         <v>1</v>
       </c>
+      <c r="BH233" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI233" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ233" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK233" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="234" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>764</v>
       </c>
@@ -43199,8 +46052,20 @@
       <c r="BG234" s="1">
         <v>1</v>
       </c>
+      <c r="BH234" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI234" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ234" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK234" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="235" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>765</v>
       </c>
@@ -43369,8 +46234,20 @@
       <c r="BG235" s="1">
         <v>2</v>
       </c>
+      <c r="BH235" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI235" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ235" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK235" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
-    <row r="236" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>768</v>
       </c>
@@ -43539,8 +46416,20 @@
       <c r="BG236" s="1">
         <v>3</v>
       </c>
+      <c r="BH236" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI236" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ236" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK236" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="237" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>770</v>
       </c>
@@ -43709,8 +46598,20 @@
       <c r="BG237" s="1">
         <v>3</v>
       </c>
+      <c r="BH237" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI237" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ237" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK237" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="238" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>771</v>
       </c>
@@ -43870,8 +46771,20 @@
       <c r="BG238" s="1">
         <v>3</v>
       </c>
+      <c r="BH238" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI238" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ238" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK238" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
-    <row r="239" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>772</v>
       </c>
@@ -44019,8 +46932,20 @@
       <c r="BG239" s="1">
         <v>3</v>
       </c>
+      <c r="BH239" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI239" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ239" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK239" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="240" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>776</v>
       </c>
@@ -44192,8 +47117,20 @@
       <c r="BG240" s="1">
         <v>1</v>
       </c>
+      <c r="BH240" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI240" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ240" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK240" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="241" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>777</v>
       </c>
@@ -44347,8 +47284,17 @@
       <c r="BG241" s="1">
         <v>1</v>
       </c>
+      <c r="BH241" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI241" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ241" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
-    <row r="242" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>778</v>
       </c>
@@ -44523,8 +47469,20 @@
       <c r="BG242" s="1">
         <v>1</v>
       </c>
+      <c r="BH242" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI242" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ242" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK242" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="243" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>780</v>
       </c>
@@ -44693,8 +47651,20 @@
       <c r="BG243" s="1">
         <v>1</v>
       </c>
+      <c r="BH243" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI243" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ243" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK243" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="244" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>783</v>
       </c>
@@ -44872,8 +47842,20 @@
       <c r="BG244" s="1">
         <v>1</v>
       </c>
+      <c r="BH244" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI244" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ244" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK244" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="245" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>784</v>
       </c>
@@ -45042,8 +48024,20 @@
       <c r="BG245" s="1">
         <v>1</v>
       </c>
+      <c r="BH245" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI245" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ245" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK245" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="246" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>785</v>
       </c>
@@ -45221,8 +48215,20 @@
       <c r="BG246" s="1">
         <v>1</v>
       </c>
+      <c r="BH246" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI246" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ246" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK246" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="247" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>786</v>
       </c>
@@ -45400,8 +48406,20 @@
       <c r="BG247" s="1">
         <v>2</v>
       </c>
+      <c r="BH247" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI247" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ247" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK247" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="248" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>787</v>
       </c>
@@ -45579,8 +48597,20 @@
       <c r="BG248" s="1">
         <v>1</v>
       </c>
+      <c r="BH248" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI248" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ248" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK248" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="249" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>792</v>
       </c>
@@ -45755,8 +48785,20 @@
       <c r="BG249" s="1">
         <v>2</v>
       </c>
+      <c r="BH249" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI249" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ249" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK249" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="250" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>795</v>
       </c>
@@ -45925,8 +48967,20 @@
       <c r="BG250" s="1">
         <v>3</v>
       </c>
+      <c r="BH250" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI250" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ250" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK250" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="251" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>796</v>
       </c>
@@ -46101,8 +49155,20 @@
       <c r="BG251" s="1">
         <v>2</v>
       </c>
+      <c r="BH251" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI251" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ251" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BK251" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="252" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>799</v>
       </c>
@@ -46268,12 +49334,17 @@
       <c r="BG252" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="BE253" s="1"/>
-      <c r="BF253" s="1"/>
-      <c r="BG253" s="1" t="s">
-        <v>644</v>
+      <c r="BH252" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI252" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ252" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BK252" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/data/var_2023.xlsx
+++ b/data/var_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merlyklaas/Documents/Work/Canopy/canopy-dac-24/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343FEEE2-D105-9A42-8E21-72B97FEC7B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001BBF23-72F2-E84A-B878-A9A6B54EED7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{D1B091CC-2E06-DF44-9AE7-D9E16021D151}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="656">
   <si>
     <t>school_id</t>
   </si>
@@ -1991,9 +1991,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -2003,46 +2000,10 @@
     <t>leader1_race</t>
   </si>
   <si>
-    <t>3,4,6</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>2,6</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>2,3,4,6</t>
-  </si>
-  <si>
-    <t>1,2,4,6</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>2,3,6</t>
-  </si>
-  <si>
-    <t>1,3,4,6</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>1,3</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2102,6 +2063,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2419,15 +2389,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02363337-ACC8-0F46-8AD1-41A8161735D6}">
   <dimension ref="A1:BK252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BI52" sqref="BI52"/>
+    <sheetView tabSelected="1" topLeftCell="BA69" workbookViewId="0">
+      <selection activeCell="BK69" sqref="BK1:BK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="33" max="63" width="10.6640625" customWidth="1"/>
+    <col min="33" max="62" width="10.6640625" customWidth="1"/>
+    <col min="63" max="63" width="10.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="3" customFormat="1" ht="125" x14ac:dyDescent="0.2">
@@ -2617,8 +2588,8 @@
       <c r="BJ1" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="BK1" s="4" t="s">
-        <v>654</v>
+      <c r="BK1" s="5" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
@@ -2802,8 +2773,8 @@
       <c r="BJ2" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="BK2" s="1" t="s">
-        <v>655</v>
+      <c r="BK2" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.2">
@@ -2987,7 +2958,7 @@
       <c r="BJ3" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BK3" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3178,7 +3149,7 @@
       <c r="BJ4" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK4" s="1" t="s">
+      <c r="BK4" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -3369,7 +3340,7 @@
       <c r="BJ5" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK5" s="1" t="s">
+      <c r="BK5" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3560,7 +3531,7 @@
       <c r="BJ6" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK6" s="1" t="s">
+      <c r="BK6" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3751,7 +3722,7 @@
       <c r="BJ7" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK7" s="1" t="s">
+      <c r="BK7" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3942,7 +3913,7 @@
       <c r="BJ8" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK8" s="1" t="s">
+      <c r="BK8" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4127,7 +4098,7 @@
       <c r="BJ9" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK9" s="1" t="s">
+      <c r="BK9" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4306,8 +4277,8 @@
       <c r="BI10" s="1">
         <v>2</v>
       </c>
-      <c r="BJ10" s="1" t="s">
-        <v>651</v>
+      <c r="BJ10" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
@@ -4491,7 +4462,7 @@
       <c r="BJ11" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK11" s="1" t="s">
+      <c r="BK11" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4682,7 +4653,7 @@
       <c r="BJ12" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK12" s="1" t="s">
+      <c r="BK12" s="6" t="s">
         <v>649</v>
       </c>
     </row>
@@ -4867,7 +4838,7 @@
       <c r="BJ13" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK13" s="1" t="s">
+      <c r="BK13" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -5058,8 +5029,8 @@
       <c r="BJ14" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK14" s="1" t="s">
-        <v>656</v>
+      <c r="BK14" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.2">
@@ -5240,7 +5211,7 @@
       <c r="BJ15" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK15" s="1" t="s">
+      <c r="BK15" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5428,7 +5399,7 @@
       <c r="BJ16" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK16" s="1" t="s">
+      <c r="BK16" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -5619,8 +5590,8 @@
       <c r="BJ17" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK17" s="1" t="s">
-        <v>656</v>
+      <c r="BK17" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
@@ -5810,7 +5781,7 @@
       <c r="BJ18" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK18" s="1" t="s">
+      <c r="BK18" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6001,7 +5972,7 @@
       <c r="BJ19" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK19" s="1" t="s">
+      <c r="BK19" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -6186,7 +6157,7 @@
       <c r="BJ20" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK20" s="1" t="s">
+      <c r="BK20" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -6377,7 +6348,7 @@
       <c r="BJ21" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK21" s="1" t="s">
+      <c r="BK21" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -6562,7 +6533,7 @@
       <c r="BJ22" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK22" s="1" t="s">
+      <c r="BK22" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -6753,7 +6724,7 @@
       <c r="BJ23" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK23" s="1" t="s">
+      <c r="BK23" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -6938,8 +6909,8 @@
       <c r="BJ24" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK24" s="1" t="s">
-        <v>657</v>
+      <c r="BK24" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
@@ -7129,7 +7100,7 @@
       <c r="BJ25" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK25" s="1" t="s">
+      <c r="BK25" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -7320,7 +7291,7 @@
       <c r="BJ26" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK26" s="1" t="s">
+      <c r="BK26" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7511,7 +7482,7 @@
       <c r="BJ27" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK27" s="1" t="s">
+      <c r="BK27" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7702,7 +7673,7 @@
       <c r="BJ28" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK28" s="1" t="s">
+      <c r="BK28" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7887,7 +7858,7 @@
       <c r="BJ29" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK29" s="1" t="s">
+      <c r="BK29" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8078,7 +8049,7 @@
       <c r="BJ30" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK30" s="1" t="s">
+      <c r="BK30" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8263,7 +8234,7 @@
       <c r="BJ31" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="BK31" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8454,7 +8425,7 @@
       <c r="BJ32" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK32" s="1" t="s">
+      <c r="BK32" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8645,7 +8616,7 @@
       <c r="BJ33" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK33" s="1" t="s">
+      <c r="BK33" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8836,7 +8807,7 @@
       <c r="BJ34" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK34" s="1" t="s">
+      <c r="BK34" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9021,7 +8992,7 @@
       <c r="BJ35" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK35" s="1" t="s">
+      <c r="BK35" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9212,7 +9183,7 @@
       <c r="BJ36" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK36" s="1" t="s">
+      <c r="BK36" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9397,8 +9368,8 @@
       <c r="BJ37" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK37" s="1" t="s">
-        <v>658</v>
+      <c r="BK37" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.2">
@@ -9582,7 +9553,7 @@
       <c r="BJ38" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK38" s="1" t="s">
+      <c r="BK38" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9767,7 +9738,7 @@
       <c r="BJ39" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK39" s="1" t="s">
+      <c r="BK39" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9952,7 +9923,7 @@
       <c r="BJ40" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK40" s="1" t="s">
+      <c r="BK40" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -10143,7 +10114,7 @@
       <c r="BJ41" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK41" s="1" t="s">
+      <c r="BK41" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -10325,7 +10296,7 @@
       <c r="BJ42" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK42" s="1" t="s">
+      <c r="BK42" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -10510,7 +10481,7 @@
       <c r="BJ43" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK43" s="1" t="s">
+      <c r="BK43" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -10701,7 +10672,7 @@
       <c r="BJ44" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK44" s="1" t="s">
+      <c r="BK44" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -10886,7 +10857,7 @@
       <c r="BJ45" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK45" s="1" t="s">
+      <c r="BK45" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -11077,7 +11048,7 @@
       <c r="BJ46" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK46" s="1" t="s">
+      <c r="BK46" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -11268,7 +11239,7 @@
       <c r="BJ47" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK47" s="1" t="s">
+      <c r="BK47" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -11459,8 +11430,8 @@
       <c r="BJ48" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK48" s="1" t="s">
-        <v>656</v>
+      <c r="BK48" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="49" spans="1:63" x14ac:dyDescent="0.2">
@@ -11650,7 +11621,7 @@
       <c r="BJ49" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK49" s="1" t="s">
+      <c r="BK49" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -11835,7 +11806,7 @@
       <c r="BJ50" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK50" s="1" t="s">
+      <c r="BK50" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -12026,7 +11997,7 @@
       <c r="BJ51" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK51" s="1" t="s">
+      <c r="BK51" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -12208,7 +12179,7 @@
       <c r="BJ52" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK52" s="1" t="s">
+      <c r="BK52" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -12399,8 +12370,8 @@
       <c r="BJ53" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK53" s="1" t="s">
-        <v>653</v>
+      <c r="BK53" s="6" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:63" x14ac:dyDescent="0.2">
@@ -12590,7 +12561,7 @@
       <c r="BJ54" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK54" s="1" t="s">
+      <c r="BK54" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -12775,7 +12746,7 @@
       <c r="BJ55" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK55" s="1" t="s">
+      <c r="BK55" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -12966,7 +12937,7 @@
       <c r="BJ56" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK56" s="1" t="s">
+      <c r="BK56" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -13157,7 +13128,7 @@
       <c r="BJ57" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK57" s="1" t="s">
+      <c r="BK57" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -13336,8 +13307,8 @@
       <c r="BI58" s="1">
         <v>1</v>
       </c>
-      <c r="BJ58" s="1" t="s">
-        <v>651</v>
+      <c r="BJ58" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:63" x14ac:dyDescent="0.2">
@@ -13518,7 +13489,7 @@
       <c r="BJ59" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK59" s="1" t="s">
+      <c r="BK59" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -13706,7 +13677,7 @@
       <c r="BJ60" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK60" s="1" t="s">
+      <c r="BK60" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -13891,7 +13862,7 @@
       <c r="BJ61" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK61" s="1" t="s">
+      <c r="BK61" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -14073,8 +14044,8 @@
       <c r="BJ62" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK62" s="1" t="s">
-        <v>659</v>
+      <c r="BK62" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:63" x14ac:dyDescent="0.2">
@@ -14258,7 +14229,7 @@
       <c r="BJ63" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK63" s="1" t="s">
+      <c r="BK63" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -14449,8 +14420,8 @@
       <c r="BJ64" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK64" s="1" t="s">
-        <v>660</v>
+      <c r="BK64" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:63" x14ac:dyDescent="0.2">
@@ -14637,7 +14608,7 @@
       <c r="BJ65" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK65" s="1" t="s">
+      <c r="BK65" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -14816,7 +14787,7 @@
       <c r="BJ66" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK66" s="1" t="s">
+      <c r="BK66" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -15001,8 +14972,8 @@
       <c r="BJ67" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK67" s="1" t="s">
-        <v>656</v>
+      <c r="BK67" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:63" x14ac:dyDescent="0.2">
@@ -15192,7 +15163,7 @@
       <c r="BJ68" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK68" s="1" t="s">
+      <c r="BK68" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -15365,7 +15336,7 @@
       <c r="BJ69" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK69" s="1" t="s">
+      <c r="BK69" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -15556,7 +15527,7 @@
       <c r="BJ70" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK70" s="1" t="s">
+      <c r="BK70" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -15747,7 +15718,7 @@
       <c r="BJ71" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK71" s="1" t="s">
+      <c r="BK71" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -15932,7 +15903,7 @@
       <c r="BJ72" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK72" s="1" t="s">
+      <c r="BK72" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -16117,8 +16088,8 @@
       <c r="BJ73" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK73" s="1" t="s">
-        <v>652</v>
+      <c r="BK73" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:63" x14ac:dyDescent="0.2">
@@ -16308,8 +16279,8 @@
       <c r="BJ74" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="BK74" s="1" t="s">
-        <v>661</v>
+      <c r="BK74" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:63" x14ac:dyDescent="0.2">
@@ -16496,8 +16467,8 @@
       <c r="BI75" s="1">
         <v>1</v>
       </c>
-      <c r="BJ75" s="1" t="s">
-        <v>651</v>
+      <c r="BJ75" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:63" x14ac:dyDescent="0.2">
@@ -16681,7 +16652,7 @@
       <c r="BJ76" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK76" s="1" t="s">
+      <c r="BK76" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -16872,7 +16843,7 @@
       <c r="BJ77" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK77" s="1" t="s">
+      <c r="BK77" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -17045,7 +17016,7 @@
       <c r="BJ78" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK78" s="1" t="s">
+      <c r="BK78" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -17236,8 +17207,8 @@
       <c r="BJ79" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK79" s="1" t="s">
-        <v>655</v>
+      <c r="BK79" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:63" x14ac:dyDescent="0.2">
@@ -17427,7 +17398,7 @@
       <c r="BJ80" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK80" s="1" t="s">
+      <c r="BK80" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -17618,7 +17589,7 @@
       <c r="BJ81" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK81" s="1" t="s">
+      <c r="BK81" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -17800,11 +17771,11 @@
       <c r="BI82" s="1">
         <v>1</v>
       </c>
-      <c r="BJ82" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="BK82" s="1" t="s">
-        <v>662</v>
+      <c r="BJ82" s="1">
+        <v>8</v>
+      </c>
+      <c r="BK82" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:63" x14ac:dyDescent="0.2">
@@ -17994,7 +17965,7 @@
       <c r="BJ83" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK83" s="1" t="s">
+      <c r="BK83" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -18185,7 +18156,7 @@
       <c r="BJ84" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK84" s="1" t="s">
+      <c r="BK84" s="6" t="s">
         <v>649</v>
       </c>
     </row>
@@ -18376,7 +18347,7 @@
       <c r="BJ85" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK85" s="1" t="s">
+      <c r="BK85" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -18561,7 +18532,7 @@
       <c r="BJ86" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK86" s="1" t="s">
+      <c r="BK86" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -18746,8 +18717,8 @@
       <c r="BJ87" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK87" s="1" t="s">
-        <v>656</v>
+      <c r="BK87" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="88" spans="1:63" x14ac:dyDescent="0.2">
@@ -18931,7 +18902,7 @@
       <c r="BJ88" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK88" s="1" t="s">
+      <c r="BK88" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19122,7 +19093,7 @@
       <c r="BJ89" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK89" s="1" t="s">
+      <c r="BK89" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -19310,8 +19281,8 @@
       <c r="BJ90" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK90" s="1" t="s">
-        <v>663</v>
+      <c r="BK90" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:63" x14ac:dyDescent="0.2">
@@ -19495,7 +19466,7 @@
       <c r="BJ91" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK91" s="1" t="s">
+      <c r="BK91" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19680,7 +19651,7 @@
       <c r="BJ92" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK92" s="1" t="s">
+      <c r="BK92" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19871,8 +19842,8 @@
       <c r="BJ93" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK93" s="1" t="s">
-        <v>664</v>
+      <c r="BK93" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="94" spans="1:63" x14ac:dyDescent="0.2">
@@ -20062,7 +20033,7 @@
       <c r="BJ94" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK94" s="1" t="s">
+      <c r="BK94" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -20244,7 +20215,7 @@
       <c r="BJ95" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK95" s="1" t="s">
+      <c r="BK95" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -20429,7 +20400,7 @@
       <c r="BJ96" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK96" s="1" t="s">
+      <c r="BK96" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -20620,7 +20591,7 @@
       <c r="BJ97" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK97" s="1" t="s">
+      <c r="BK97" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -20811,7 +20782,7 @@
       <c r="BJ98" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK98" s="1" t="s">
+      <c r="BK98" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -20975,7 +20946,7 @@
       <c r="BJ99" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK99" s="1" t="s">
+      <c r="BK99" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -21136,8 +21107,8 @@
       <c r="BJ100" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK100" s="1" t="s">
-        <v>652</v>
+      <c r="BK100" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="101" spans="1:63" x14ac:dyDescent="0.2">
@@ -21327,7 +21298,7 @@
       <c r="BJ101" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK101" s="1" t="s">
+      <c r="BK101" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -21509,8 +21480,8 @@
       <c r="BJ102" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK102" s="1" t="s">
-        <v>664</v>
+      <c r="BK102" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="103" spans="1:63" x14ac:dyDescent="0.2">
@@ -21700,7 +21671,7 @@
       <c r="BJ103" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK103" s="1" t="s">
+      <c r="BK103" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -21885,7 +21856,7 @@
       <c r="BJ104" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK104" s="1" t="s">
+      <c r="BK104" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -22068,10 +22039,10 @@
         <v>0</v>
       </c>
       <c r="BJ105" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="BK105" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="BK105" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="106" spans="1:63" x14ac:dyDescent="0.2">
@@ -22255,7 +22226,7 @@
       <c r="BJ106" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK106" s="1" t="s">
+      <c r="BK106" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -22446,8 +22417,8 @@
       <c r="BJ107" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK107" s="1" t="s">
-        <v>664</v>
+      <c r="BK107" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:63" x14ac:dyDescent="0.2">
@@ -22637,7 +22608,7 @@
       <c r="BJ108" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK108" s="1" t="s">
+      <c r="BK108" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -23004,7 +22975,7 @@
       <c r="BJ110" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK110" s="1" t="s">
+      <c r="BK110" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -23195,7 +23166,7 @@
       <c r="BJ111" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK111" s="1" t="s">
+      <c r="BK111" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -23383,7 +23354,7 @@
       <c r="BJ112" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK112" s="1" t="s">
+      <c r="BK112" s="6" t="s">
         <v>650</v>
       </c>
     </row>
@@ -23574,8 +23545,8 @@
       <c r="BJ113" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK113" s="1" t="s">
-        <v>656</v>
+      <c r="BK113" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="114" spans="1:63" x14ac:dyDescent="0.2">
@@ -23762,7 +23733,7 @@
       <c r="BJ114" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK114" s="1" t="s">
+      <c r="BK114" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -23942,10 +23913,10 @@
         <v>3</v>
       </c>
       <c r="BJ115" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="BK115" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="BK115" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="116" spans="1:63" x14ac:dyDescent="0.2">
@@ -24126,7 +24097,7 @@
       <c r="BJ116" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK116" s="1" t="s">
+      <c r="BK116" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -24308,8 +24279,8 @@
       <c r="BJ117" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK117" s="1" t="s">
-        <v>665</v>
+      <c r="BK117" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:63" x14ac:dyDescent="0.2">
@@ -24499,7 +24470,7 @@
       <c r="BJ118" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK118" s="1" t="s">
+      <c r="BK118" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -24687,7 +24658,7 @@
       <c r="BJ119" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK119" s="1" t="s">
+      <c r="BK119" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -24878,7 +24849,7 @@
       <c r="BJ120" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK120" s="1" t="s">
+      <c r="BK120" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -25069,7 +25040,7 @@
       <c r="BJ121" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK121" s="1" t="s">
+      <c r="BK121" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -25251,7 +25222,7 @@
       <c r="BJ122" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK122" s="1" t="s">
+      <c r="BK122" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -25433,7 +25404,7 @@
       <c r="BJ123" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK123" s="1" t="s">
+      <c r="BK123" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -25624,8 +25595,8 @@
       <c r="BJ124" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK124" s="1" t="s">
-        <v>656</v>
+      <c r="BK124" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="1:63" x14ac:dyDescent="0.2">
@@ -25815,8 +25786,8 @@
       <c r="BJ125" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK125" s="1" t="s">
-        <v>666</v>
+      <c r="BK125" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:63" x14ac:dyDescent="0.2">
@@ -26000,7 +25971,7 @@
       <c r="BJ126" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK126" s="1" t="s">
+      <c r="BK126" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -26191,7 +26162,7 @@
       <c r="BJ127" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK127" s="1" t="s">
+      <c r="BK127" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -26376,7 +26347,7 @@
       <c r="BJ128" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK128" s="1" t="s">
+      <c r="BK128" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -26564,7 +26535,7 @@
       <c r="BJ129" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK129" s="1" t="s">
+      <c r="BK129" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -26752,7 +26723,7 @@
       <c r="BJ130" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK130" s="1" t="s">
+      <c r="BK130" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -26940,8 +26911,8 @@
       <c r="BJ131" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK131" s="1" t="s">
-        <v>667</v>
+      <c r="BK131" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:63" x14ac:dyDescent="0.2">
@@ -27122,7 +27093,7 @@
       <c r="BJ132" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK132" s="1" t="s">
+      <c r="BK132" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -27313,7 +27284,7 @@
       <c r="BJ133" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK133" s="1" t="s">
+      <c r="BK133" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -27498,7 +27469,7 @@
       <c r="BJ134" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK134" s="1" t="s">
+      <c r="BK134" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -27683,7 +27654,7 @@
       <c r="BJ135" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK135" s="1" t="s">
+      <c r="BK135" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -27874,8 +27845,8 @@
       <c r="BJ136" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK136" s="1" t="s">
-        <v>656</v>
+      <c r="BK136" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="137" spans="1:63" x14ac:dyDescent="0.2">
@@ -28059,7 +28030,7 @@
       <c r="BJ137" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK137" s="1" t="s">
+      <c r="BK137" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -28250,8 +28221,8 @@
       <c r="BJ138" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK138" s="1" t="s">
-        <v>652</v>
+      <c r="BK138" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="139" spans="1:63" x14ac:dyDescent="0.2">
@@ -28441,7 +28412,7 @@
       <c r="BJ139" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK139" s="1" t="s">
+      <c r="BK139" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -28820,7 +28791,7 @@
       <c r="BJ141" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK141" s="1" t="s">
+      <c r="BK141" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -29005,7 +28976,7 @@
       <c r="BJ142" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK142" s="1" t="s">
+      <c r="BK142" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -29187,7 +29158,7 @@
       <c r="BJ143" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK143" s="1" t="s">
+      <c r="BK143" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -29378,7 +29349,7 @@
       <c r="BJ144" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK144" s="1" t="s">
+      <c r="BK144" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -29560,7 +29531,7 @@
       <c r="BJ145" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK145" s="1" t="s">
+      <c r="BK145" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -29751,7 +29722,7 @@
       <c r="BJ146" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK146" s="1" t="s">
+      <c r="BK146" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -29942,7 +29913,7 @@
       <c r="BJ147" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK147" s="1" t="s">
+      <c r="BK147" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -30121,7 +30092,7 @@
       <c r="BJ148" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="BK148" s="1" t="s">
+      <c r="BK148" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -30306,7 +30277,7 @@
       <c r="BJ149" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK149" s="1" t="s">
+      <c r="BK149" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -30488,7 +30459,7 @@
       <c r="BJ150" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK150" s="1" t="s">
+      <c r="BK150" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -30673,7 +30644,7 @@
       <c r="BJ151" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK151" s="1" t="s">
+      <c r="BK151" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -30855,7 +30826,7 @@
       <c r="BJ152" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK152" s="1" t="s">
+      <c r="BK152" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -31037,7 +31008,7 @@
       <c r="BJ153" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK153" s="1" t="s">
+      <c r="BK153" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -31225,7 +31196,7 @@
       <c r="BJ154" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK154" s="1" t="s">
+      <c r="BK154" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -31416,7 +31387,7 @@
       <c r="BJ155" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK155" s="1" t="s">
+      <c r="BK155" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -31598,7 +31569,7 @@
       <c r="BJ156" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK156" s="1" t="s">
+      <c r="BK156" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -31780,7 +31751,7 @@
       <c r="BJ157" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK157" s="1" t="s">
+      <c r="BK157" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -31962,7 +31933,7 @@
       <c r="BJ158" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK158" s="1" t="s">
+      <c r="BK158" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -32153,8 +32124,8 @@
       <c r="BJ159" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK159" s="1" t="s">
-        <v>652</v>
+      <c r="BK159" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="160" spans="1:63" x14ac:dyDescent="0.2">
@@ -32335,7 +32306,7 @@
       <c r="BJ160" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK160" s="1" t="s">
+      <c r="BK160" s="6" t="s">
         <v>650</v>
       </c>
     </row>
@@ -32518,10 +32489,10 @@
         <v>1</v>
       </c>
       <c r="BJ161" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="BK161" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="BK161" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="162" spans="1:63" x14ac:dyDescent="0.2">
@@ -32699,7 +32670,7 @@
       <c r="BJ162" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK162" s="1" t="s">
+      <c r="BK162" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -32890,7 +32861,7 @@
       <c r="BJ163" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK163" s="1" t="s">
+      <c r="BK163" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -33078,8 +33049,8 @@
       <c r="BJ164" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK164" s="1" t="s">
-        <v>667</v>
+      <c r="BK164" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:63" x14ac:dyDescent="0.2">
@@ -33269,8 +33240,8 @@
       <c r="BJ165" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK165" s="1" t="s">
-        <v>656</v>
+      <c r="BK165" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="166" spans="1:63" x14ac:dyDescent="0.2">
@@ -33454,7 +33425,7 @@
       <c r="BJ166" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK166" s="1" t="s">
+      <c r="BK166" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -33645,7 +33616,7 @@
       <c r="BJ167" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK167" s="1" t="s">
+      <c r="BK167" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -33833,7 +33804,7 @@
       <c r="BJ168" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK168" s="1" t="s">
+      <c r="BK168" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -34015,7 +33986,7 @@
       <c r="BJ169" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK169" s="1" t="s">
+      <c r="BK169" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -34167,8 +34138,8 @@
       <c r="BJ170" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK170" s="1" t="s">
-        <v>668</v>
+      <c r="BK170" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:63" x14ac:dyDescent="0.2">
@@ -34352,7 +34323,7 @@
       <c r="BJ171" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK171" s="1" t="s">
+      <c r="BK171" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -34534,7 +34505,7 @@
       <c r="BJ172" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK172" s="1" t="s">
+      <c r="BK172" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -34719,7 +34690,7 @@
       <c r="BJ173" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK173" s="1" t="s">
+      <c r="BK173" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -34908,10 +34879,10 @@
         <v>0</v>
       </c>
       <c r="BJ174" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="BK174" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="BK174" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="175" spans="1:63" x14ac:dyDescent="0.2">
@@ -35098,7 +35069,7 @@
       <c r="BJ175" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK175" s="1" t="s">
+      <c r="BK175" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -35283,7 +35254,7 @@
       <c r="BJ176" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK176" s="1" t="s">
+      <c r="BK176" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -35474,7 +35445,7 @@
       <c r="BJ177" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK177" s="1" t="s">
+      <c r="BK177" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -35665,7 +35636,7 @@
       <c r="BJ178" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK178" s="1" t="s">
+      <c r="BK178" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -35853,8 +35824,8 @@
       <c r="BJ179" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK179" s="1" t="s">
-        <v>663</v>
+      <c r="BK179" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:63" x14ac:dyDescent="0.2">
@@ -36044,7 +36015,7 @@
       <c r="BJ180" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK180" s="1" t="s">
+      <c r="BK180" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -36229,7 +36200,7 @@
       <c r="BJ181" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK181" s="1" t="s">
+      <c r="BK181" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -36420,8 +36391,8 @@
       <c r="BJ182" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK182" s="1" t="s">
-        <v>656</v>
+      <c r="BK182" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="183" spans="1:63" x14ac:dyDescent="0.2">
@@ -36611,7 +36582,7 @@
       <c r="BJ183" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK183" s="1" t="s">
+      <c r="BK183" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -36799,8 +36770,8 @@
       <c r="BJ184" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK184" s="1" t="s">
-        <v>652</v>
+      <c r="BK184" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="185" spans="1:63" x14ac:dyDescent="0.2">
@@ -36981,7 +36952,7 @@
       <c r="BJ185" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK185" s="1" t="s">
+      <c r="BK185" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -37163,7 +37134,7 @@
       <c r="BJ186" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK186" s="1" t="s">
+      <c r="BK186" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -37351,7 +37322,7 @@
       <c r="BJ187" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK187" s="1" t="s">
+      <c r="BK187" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -37542,7 +37513,7 @@
       <c r="BJ188" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK188" s="1" t="s">
+      <c r="BK188" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -37724,7 +37695,7 @@
       <c r="BJ189" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK189" s="1" t="s">
+      <c r="BK189" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -37909,7 +37880,7 @@
       <c r="BJ190" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK190" s="1" t="s">
+      <c r="BK190" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -38097,7 +38068,7 @@
       <c r="BJ191" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK191" s="1" t="s">
+      <c r="BK191" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -38288,8 +38259,8 @@
       <c r="BJ192" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK192" s="1" t="s">
-        <v>652</v>
+      <c r="BK192" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="193" spans="1:63" x14ac:dyDescent="0.2">
@@ -38458,7 +38429,7 @@
       <c r="BJ193" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK193" s="1" t="s">
+      <c r="BK193" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -38646,7 +38617,7 @@
       <c r="BJ194" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK194" s="1" t="s">
+      <c r="BK194" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -38837,7 +38808,7 @@
       <c r="BJ195" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK195" s="1" t="s">
+      <c r="BK195" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -38998,7 +38969,7 @@
       <c r="BJ196" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK196" s="1" t="s">
+      <c r="BK196" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -39147,7 +39118,7 @@
       <c r="BJ197" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK197" s="1" t="s">
+      <c r="BK197" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -39329,7 +39300,7 @@
       <c r="BJ198" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK198" s="1" t="s">
+      <c r="BK198" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -39520,7 +39491,7 @@
       <c r="BJ199" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK199" s="1" t="s">
+      <c r="BK199" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -39711,8 +39682,8 @@
       <c r="BJ200" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK200" s="1" t="s">
-        <v>668</v>
+      <c r="BK200" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:63" x14ac:dyDescent="0.2">
@@ -39899,7 +39870,7 @@
       <c r="BJ201" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK201" s="1" t="s">
+      <c r="BK201" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -40081,7 +40052,7 @@
       <c r="BJ202" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK202" s="1" t="s">
+      <c r="BK202" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -40272,7 +40243,7 @@
       <c r="BJ203" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK203" s="1" t="s">
+      <c r="BK203" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -40457,7 +40428,7 @@
       <c r="BJ204" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK204" s="1" t="s">
+      <c r="BK204" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -40645,7 +40616,7 @@
       <c r="BJ205" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK205" s="1" t="s">
+      <c r="BK205" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -40836,8 +40807,8 @@
       <c r="BJ206" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK206" s="1" t="s">
-        <v>656</v>
+      <c r="BK206" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="207" spans="1:63" x14ac:dyDescent="0.2">
@@ -41024,7 +40995,7 @@
       <c r="BJ207" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK207" s="1" t="s">
+      <c r="BK207" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -41206,7 +41177,7 @@
       <c r="BJ208" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK208" s="1" t="s">
+      <c r="BK208" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -41394,7 +41365,7 @@
       <c r="BJ209" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK209" s="1" t="s">
+      <c r="BK209" s="6" t="s">
         <v>650</v>
       </c>
     </row>
@@ -41582,7 +41553,7 @@
       <c r="BJ210" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK210" s="1" t="s">
+      <c r="BK210" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -41771,10 +41742,10 @@
         <v>3</v>
       </c>
       <c r="BJ211" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="BK211" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
+      </c>
+      <c r="BK211" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="212" spans="1:63" x14ac:dyDescent="0.2">
@@ -41964,7 +41935,7 @@
       <c r="BJ212" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK212" s="1" t="s">
+      <c r="BK212" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -42152,8 +42123,8 @@
       <c r="BJ213" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK213" s="1" t="s">
-        <v>656</v>
+      <c r="BK213" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="214" spans="1:63" x14ac:dyDescent="0.2">
@@ -42334,8 +42305,8 @@
       <c r="BJ214" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK214" s="1" t="s">
-        <v>655</v>
+      <c r="BK214" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:63" x14ac:dyDescent="0.2">
@@ -42525,7 +42496,7 @@
       <c r="BJ215" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK215" s="1" t="s">
+      <c r="BK215" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -42710,7 +42681,7 @@
       <c r="BJ216" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK216" s="1" t="s">
+      <c r="BK216" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -42901,7 +42872,7 @@
       <c r="BJ217" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK217" s="1" t="s">
+      <c r="BK217" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -43089,7 +43060,7 @@
       <c r="BJ218" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK218" s="1" t="s">
+      <c r="BK218" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -43271,7 +43242,7 @@
       <c r="BJ219" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK219" s="1" t="s">
+      <c r="BK219" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -43453,7 +43424,7 @@
       <c r="BJ220" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK220" s="1" t="s">
+      <c r="BK220" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -43644,8 +43615,8 @@
       <c r="BJ221" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK221" s="1" t="s">
-        <v>667</v>
+      <c r="BK221" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:63" x14ac:dyDescent="0.2">
@@ -43829,7 +43800,7 @@
       <c r="BJ222" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK222" s="1" t="s">
+      <c r="BK222" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -44017,7 +43988,7 @@
       <c r="BJ223" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK223" s="1" t="s">
+      <c r="BK223" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -44199,7 +44170,7 @@
       <c r="BJ224" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK224" s="1" t="s">
+      <c r="BK224" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -44387,8 +44358,8 @@
       <c r="BJ225" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK225" s="1" t="s">
-        <v>663</v>
+      <c r="BK225" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:63" x14ac:dyDescent="0.2">
@@ -44569,7 +44540,7 @@
       <c r="BJ226" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK226" s="1" t="s">
+      <c r="BK226" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -44751,7 +44722,7 @@
       <c r="BJ227" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK227" s="1" t="s">
+      <c r="BK227" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -44939,7 +44910,7 @@
       <c r="BJ228" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK228" s="1" t="s">
+      <c r="BK228" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -45130,8 +45101,8 @@
       <c r="BJ229" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK229" s="1" t="s">
-        <v>656</v>
+      <c r="BK229" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="230" spans="1:63" x14ac:dyDescent="0.2">
@@ -45315,7 +45286,7 @@
       <c r="BJ230" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK230" s="1" t="s">
+      <c r="BK230" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -45506,7 +45477,7 @@
       <c r="BJ231" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK231" s="1" t="s">
+      <c r="BK231" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -45688,7 +45659,7 @@
       <c r="BJ232" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK232" s="1" t="s">
+      <c r="BK232" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -45876,7 +45847,7 @@
       <c r="BJ233" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK233" s="1" t="s">
+      <c r="BK233" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -46061,7 +46032,7 @@
       <c r="BJ234" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK234" s="1" t="s">
+      <c r="BK234" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -46243,8 +46214,8 @@
       <c r="BJ235" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK235" s="1" t="s">
-        <v>658</v>
+      <c r="BK235" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:63" x14ac:dyDescent="0.2">
@@ -46425,7 +46396,7 @@
       <c r="BJ236" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK236" s="1" t="s">
+      <c r="BK236" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -46607,7 +46578,7 @@
       <c r="BJ237" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK237" s="1" t="s">
+      <c r="BK237" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -46780,7 +46751,7 @@
       <c r="BJ238" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK238" s="1" t="s">
+      <c r="BK238" s="6" t="s">
         <v>650</v>
       </c>
     </row>
@@ -46941,7 +46912,7 @@
       <c r="BJ239" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK239" s="1" t="s">
+      <c r="BK239" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -47126,7 +47097,7 @@
       <c r="BJ240" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK240" s="1" t="s">
+      <c r="BK240" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -47478,7 +47449,7 @@
       <c r="BJ242" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK242" s="1" t="s">
+      <c r="BK242" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -47660,7 +47631,7 @@
       <c r="BJ243" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK243" s="1" t="s">
+      <c r="BK243" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -47851,8 +47822,8 @@
       <c r="BJ244" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK244" s="1" t="s">
-        <v>656</v>
+      <c r="BK244" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="245" spans="1:63" x14ac:dyDescent="0.2">
@@ -48033,7 +48004,7 @@
       <c r="BJ245" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK245" s="1" t="s">
+      <c r="BK245" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -48224,7 +48195,7 @@
       <c r="BJ246" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK246" s="1" t="s">
+      <c r="BK246" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -48415,7 +48386,7 @@
       <c r="BJ247" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK247" s="1" t="s">
+      <c r="BK247" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -48606,7 +48577,7 @@
       <c r="BJ248" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK248" s="1" t="s">
+      <c r="BK248" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -48794,7 +48765,7 @@
       <c r="BJ249" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK249" s="1" t="s">
+      <c r="BK249" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -48976,7 +48947,7 @@
       <c r="BJ250" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK250" s="1" t="s">
+      <c r="BK250" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -49164,7 +49135,7 @@
       <c r="BJ251" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BK251" s="1" t="s">
+      <c r="BK251" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -49343,7 +49314,7 @@
       <c r="BJ252" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BK252" s="1" t="s">
+      <c r="BK252" s="6" t="s">
         <v>557</v>
       </c>
     </row>
